--- a/VersionRecords/Version 5.3.0 20170221/定时器/金融定时器.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/定时器/金融定时器.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>定时器类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.MogoBaoStatisticsTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MogoBaoStatisticsTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝统计定时器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.LoanBizReminder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,7 +96,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增</t>
+    <t>com.mogoroom.tasktracker.task.SyncApproveStatusTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncApproveStatusTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝审批同步定时器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +464,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,60 +506,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
